--- a/biology/Zoologie/Heleomyza/Heleomyza.xlsx
+++ b/biology/Zoologie/Heleomyza/Heleomyza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leria, Thelipus
 Heleomyza est un genre d'insectes diptères de la famille des Heleomyzidae.
@@ -512,14 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Heleomyza est décrit par le botaniste et entomologiste suédois Carl Frederick Fallén (1764-1830) en 1810[1],[2].
-Synonymes
-Leria Robineau-Desvoidy, 1830[2]
-Thelipus Robineau-Desvoidy, 1830[3].
-Fossiles et âge
-Selon Paleobiology Database en 2023, quatre collections de fossiles de l'Oligocène sont référencées dont une en France et trois en Allemagne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Heleomyza est décrit par le botaniste et entomologiste suédois Carl Frederick Fallén (1764-1830) en 1810,.
 </t>
         </is>
       </c>
@@ -545,15 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Espèces fossiles</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Selon la Paleobiology Database en 2023, le nombre d'espèces fossiles est de trois[2] :
-†Heleomyza bauckhorni Meunier, 1914 avec un synonyme Leria bauckhorni
-†Heleomyza fagei Jean Timon-David (d), 1944
-†Heleomyza oligocenica Théobald, 1937[2].</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Leria Robineau-Desvoidy, 1830
+Thelipus Robineau-Desvoidy, 1830.</t>
         </is>
       </c>
     </row>
@@ -578,10 +591,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles et âge</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, quatre collections de fossiles de l'Oligocène sont référencées dont une en France et trois en Allemagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heleomyza</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heleomyza</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la Paleobiology Database en 2023, le nombre d'espèces fossiles est de trois :
+†Heleomyza bauckhorni Meunier, 1914 avec un synonyme Leria bauckhorni
+†Heleomyza fagei Jean Timon-David (d), 1944
+†Heleomyza oligocenica Théobald, 1937.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heleomyza</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heleomyza</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Heleomyza aldrichi
